--- a/data/trans_dic/P24_8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8,04%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>16,85%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,98%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,37%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>10,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>20,46%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>10,38%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,5</t>
+          <t>2,1; 9,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,03</t>
+          <t>2,74; 10,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,49</t>
+          <t>0,62; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,87</t>
+          <t>0,93; 8,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 14,06</t>
+          <t>3,9; 16,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,85; 23,67</t>
+          <t>3,65; 13,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 17,24</t>
+          <t>5,28; 17,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,78</t>
+          <t>11,31; 22,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 20,1</t>
+          <t>6,8; 17,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 28,51</t>
+          <t>6,76; 15,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,75</t>
+          <t>8,99; 19,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,6</t>
+          <t>9,53; 21,6</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,69</t>
+          <t>13,54; 29,12</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,44</t>
+          <t>14,55; 29,47</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 19,66</t>
+          <t>7,41; 14,06</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 11,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 9,7</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 12,21</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>7,71; 16,79</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 18,87</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 20,82</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>10,25%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,63%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,59%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,9%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>10,57%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>8,78%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>11,96%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>13,71%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 21,18</t>
+          <t>3,64; 21,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 14,51</t>
+          <t>3,52; 16,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,87</t>
+          <t>2,96; 8,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 21,01</t>
+          <t>6,0; 20,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,93</t>
+          <t>2,42; 10,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,62</t>
+          <t>4,93; 15,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 20,88</t>
+          <t>3,81; 19,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 17,67</t>
+          <t>8,08; 17,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 19,24</t>
+          <t>9,01; 20,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 24,66</t>
+          <t>8,43; 17,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 17,77</t>
+          <t>10,02; 19,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,74</t>
+          <t>12,48; 24,41</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,75</t>
+          <t>12,98; 24,86</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 17,33</t>
+          <t>12,8; 25,01</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 18,11</t>
+          <t>7,27; 16,23</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 15,89</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 12,0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 17,35</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 15,68</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 18,93</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 20,15</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>10,22%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>14,91%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,5%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>11,36%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>10,83%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>8,61%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>10,76%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 12,53</t>
+          <t>3,68; 12,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,55</t>
+          <t>3,34; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,16</t>
+          <t>1,9; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,02</t>
+          <t>3,28; 8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,67</t>
+          <t>2,92; 9,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,26</t>
+          <t>6,79; 15,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 16,13</t>
+          <t>4,71; 12,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,2</t>
+          <t>11,47; 19,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,85</t>
+          <t>8,49; 16,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,07</t>
+          <t>8,04; 14,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,81</t>
+          <t>8,66; 14,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,88</t>
+          <t>9,47; 16,48</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,16</t>
+          <t>7,48; 15,87</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,91</t>
+          <t>13,64; 23,62</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>8,18; 14,0</t>
+          <t>8,44; 14,27</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 11,59</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 9,83</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 10,92</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 11,55</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>8,29; 14,28</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 16,56</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,7%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>12,47%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>11,19%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>16,9%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>8,84%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>9,42%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>13,11%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,24</t>
+          <t>2,67; 7,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,7</t>
+          <t>2,21; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,77</t>
+          <t>2,98; 8,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 8,68</t>
+          <t>3,73; 9,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 14,74</t>
+          <t>1,44; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,02</t>
+          <t>6,13; 14,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,01</t>
+          <t>9,28; 20,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,32</t>
+          <t>9,26; 16,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 17,99</t>
+          <t>8,33; 15,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 21,94</t>
+          <t>10,44; 16,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,25</t>
+          <t>11,15; 18,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,19</t>
+          <t>11,9; 20,42</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,98</t>
+          <t>12,61; 22,02</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,73</t>
+          <t>10,91; 20,19</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 16,37</t>
+          <t>6,8; 11,12</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 10,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 11,67</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 12,51</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 11,83</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>9,81; 16,57</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 18,04</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1654,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1375,62 +1664,92 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>13,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>11,38%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,54%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>11,67%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>20,09%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>7,0%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>9,23%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>8,58%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>11,34%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>16,84%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,19</t>
+          <t>1,18; 5,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,0</t>
+          <t>0,81; 4,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,36</t>
+          <t>3,73; 10,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,01</t>
+          <t>3,1; 13,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,49</t>
+          <t>4,53; 13,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 16,09</t>
+          <t>8,5; 18,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 16,93</t>
+          <t>11,03; 21,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,4</t>
+          <t>7,86; 15,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 14,72</t>
+          <t>7,91; 17,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,56; 25,45</t>
+          <t>8,17; 16,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,51</t>
+          <t>7,08; 14,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,51</t>
+          <t>9,37; 20,11</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,51</t>
+          <t>15,43; 25,92</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,38</t>
+          <t>15,74; 27,77</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 20,56</t>
+          <t>5,01; 9,78</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 10,17</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 12,08</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 12,66</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 15,2</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 21,01</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>14,77; 22,83</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>7,95%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23,5%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
           <t>5,34%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>7,25%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>7,94%</t>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,54</t>
+          <t>0,48; 4,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,12</t>
+          <t>0,5; 4,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,61</t>
+          <t>0,81; 5,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,14</t>
+          <t>0,73; 5,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 7,26</t>
+          <t>2,07; 11,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,28</t>
+          <t>0,77; 7,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,23</t>
+          <t>3,59; 12,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,58</t>
+          <t>5,37; 11,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,09</t>
+          <t>4,09; 11,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 18,92</t>
+          <t>4,06; 11,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,57</t>
+          <t>8,01; 16,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,6</t>
+          <t>8,71; 20,61</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,24</t>
+          <t>6,36; 18,06</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,19</t>
+          <t>17,23; 31,16</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,58</t>
+          <t>3,6; 7,8</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 7,19</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 7,8</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 10,61</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 14,57</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 11,99</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 21,28</t>
         </is>
       </c>
     </row>
@@ -1705,7 +2114,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1715,62 +2124,92 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>9,0%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>12,38%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>10,69%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10,75%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>15,96%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>8,81%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>12,49%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,37</t>
+          <t>3,66; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,89</t>
+          <t>3,24; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,4</t>
+          <t>3,43; 5,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,85</t>
+          <t>4,3; 7,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,15</t>
+          <t>4,41; 7,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,0</t>
+          <t>7,33; 11,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,61</t>
+          <t>8,78; 13,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,17; 12,52</t>
+          <t>10,84; 14,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,13</t>
+          <t>9,26; 12,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,81; 18,21</t>
+          <t>9,37; 12,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,08</t>
+          <t>10,99; 14,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,74</t>
+          <t>12,53; 16,9</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,71</t>
+          <t>13,61; 18,52</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 10,46</t>
+          <t>17,33; 22,3</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,96</t>
+          <t>7,79; 10,13</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 8,94</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 8,73</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 10,45</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 11,83</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 14,0</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 16,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23297</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25369</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13150</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18609</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40757</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3383</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>77984</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50917</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54585</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70314</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69452</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8307</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>101281</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>76285</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>67734</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>88922</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>110209</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>10962</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>12776</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10749; 46451</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13747; 50718</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3267; 32281</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4753; 43486</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18204; 76380</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1536; 5829</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2327; 7866</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>52336; 105908</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31878; 84180</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34782; 80106</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46211; 100535</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45486; 103068</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5018; 10790</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5610; 11363</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>72265; 137213</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>51915; 114833</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>43307; 100794</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>59987; 125047</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>72746; 158411</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>8012; 14931</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>9179; 17199</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51765</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42169</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29832</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>62188</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33518</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62721</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69527</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63804</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73647</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90061</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8465</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>114486</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>111696</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>93637</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>135836</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>123579</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>13249</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>12877</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20528; 118660</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20191; 92404</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16717; 50216</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35692; 122715</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14022; 63045</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2440; 7769</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1807; 9037</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41933; 90570</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46545; 104403</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>42829; 88945</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51825; 99902</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63027; 123271</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6127; 11734</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5889; 11508</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78633; 175644</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>76809; 173150</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>68549; 128818</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>100729; 192938</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>86586; 170150</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>9826; 18300</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>9037; 18822</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>44821</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40040</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24277</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36880</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36360</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6151</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4938</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>103512</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85105</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78323</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>82197</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88999</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6099</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9841</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>148333</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>125145</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>102600</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>119077</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>125359</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>12251</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>14779</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24881; 81422</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22947; 65827</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12851; 42652</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22293; 59011</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19810; 63579</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4085; 9276</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2848; 7494</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79622; 132887</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>60476; 114618</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57600; 101283</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61838; 106400</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>67928; 118248</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4017; 8521</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7448; 12900</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>115641; 195482</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>93426; 162127</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>79469; 137100</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>91527; 152186</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>93841; 161258</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>9440; 16272</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>11212; 19045</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30894</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25362</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33815</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36881</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20780</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5654</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7954</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87693</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>79421</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>90246</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>94517</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>103718</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8860</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8044</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>118587</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>104782</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>124061</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>131398</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>124498</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>14515</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>15998</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17021; 48284</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14298; 45297</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19258; 52969</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23758; 58825</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9418; 40051</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3570; 8666</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5239; 11679</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>65102; 114678</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56949; 107019</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69846; 113481</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73589; 119389</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>78685; 135049</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6613; 11544</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5810; 10755</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>91187; 149239</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>79187; 140891</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>97306; 153487</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>104740; 162155</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>93724; 155824</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>10863; 18341</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>12444; 19798</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13806</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11031</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>34539</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32552</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39979</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5915</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7056</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57161</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60216</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58520</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>53824</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>73885</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>9753</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>70967</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>71247</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>93059</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>86376</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>113864</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>15668</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>16757</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6056; 26566</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4013; 23075</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18668; 52618</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15307; 66215</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22177; 66750</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3782; 8427</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4975; 9506</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39468; 79894</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>40252; 88604</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40982; 80745</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36481; 75635</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48200; 103464</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7493; 12584</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>7333; 12938</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>50776; 99244</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>47376; 102151</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>69839; 120983</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>61227; 127674</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>81545; 152595</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>12341; 19546</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>13545; 20935</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10095</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9263</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12703</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12247</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>30731</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>58149</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50283</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>47918</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>79719</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>102098</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7368</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>14691</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>68245</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>59546</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>60622</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>91966</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>132829</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>8771</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>17923</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2603; 25235</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2685; 24328</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4203; 28332</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3862; 31368</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11728; 62604</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>359; 3534</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1646; 5713</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>39279; 87349</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29262; 78742</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27810; 81275</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>55102; 110737</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>64010; 151406</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>4052; 11506</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>10770; 19479</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>45949; 99672</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>33739; 90018</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>38506; 93727</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>64580; 129499</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>91762; 189597</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>5156; 13259</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>13499; 23060</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>174679</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>153232</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>148316</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>199357</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>202124</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>27107</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32060</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>447220</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>395469</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>393396</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>454218</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>528213</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>48309</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>59049</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>621899</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>548702</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>541712</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>653574</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>730338</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>75416</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>91110</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>126397; 243660</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>111538; 206688</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>117610; 189835</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>148284; 267650</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>151437; 262078</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22075; 33397</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>26273; 39550</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>391782; 511532</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>333807; 453432</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>336922; 458147</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>396392; 518209</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>452328; 610231</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>41205; 56039</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>52248; 67258</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>550436; 715063</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>473518; 629999</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>478867; 613641</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>575944; 737405</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>640157; 833293</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>66376; 84581</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>81834; 100594</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>